--- a/datos_salida/Programación_General.xlsx
+++ b/datos_salida/Programación_General.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7973,19 +7973,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>APM-857</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>UL&amp;PH INVERSIONES SAC</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>4500</v>
+        <v>7600</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8028,69 +8028,69 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4501034405</t>
+          <t>889364</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BJV-928</t>
+          <t>AJF-705</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MULTITRANS RR</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="E116" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>P255</t>
+          <t>1011710</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>E/S LURIGANCHO</t>
+          <t>GASCORVILL S.A.C.</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>COESTI</t>
+          <t>Dealer</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>CANTO GRANDE</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Av. Lurigancho 1175, San Juan de Lurigancho 15427</t>
+          <t>Av. Pacasmayo 3, Callao 07031</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002047</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>PRIMAX GASOHOL 95</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G95</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -8100,7 +8100,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>889364</t>
+          <t>889363</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8146,17 +8146,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>40002047</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 95</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>G95</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="N117" t="n">
@@ -8166,73 +8166,73 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>889363</t>
+          <t>4501031904</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AJF-705</t>
+          <t>AXY-949</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TRANSPORTES TESA</t>
+          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1011710</t>
+          <t>P135</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>GASCORVILL S.A.C.</t>
+          <t>E/S ATE 1</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Dealer</t>
+          <t>COESTI</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Av. Pacasmayo 3, Callao 07031</t>
+          <t>Tomas Alva Edison 160, Lima 15022</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4501031904</t>
+          <t>4501031906</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8278,53 +8278,53 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>40002019</t>
+          <t>40002039</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
+          <t>PRIMAX GASOHOL 90</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>G90</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4501031906</t>
+          <t>4501031995</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AXY-949</t>
+          <t>BED-794</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TRANSPORTES GENERALES J&amp;F S.A.C</t>
+          <t>TRANSPORTES TESA</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v>9000</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>P135</t>
+          <t>P294</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>E/S ATE 1</t>
+          <t>E/S SAN JOSÉ</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -8334,96 +8334,30 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Tomas Alva Edison 160, Lima 15022</t>
+          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>40002039</t>
+          <t>40002019</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>PRIMAX GASOHOL 90</t>
+          <t>MAX-D DIESEL B5 S50 UV</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>4501031995</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>BED-794</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>TRANSPORTES TESA</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>P294</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>E/S SAN JOSÉ</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>COESTI</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>BARRANCA</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>40002019</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>MAX-D DIESEL B5 S50 UV</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
         <v>3000</v>
       </c>
     </row>
